--- a/templates/master_upload.xlsx
+++ b/templates/master_upload.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\corp.ds.fedex.com\vdi-oz\U5\5194105\Documents\R66\Templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610"/>
   </bookViews>
@@ -15,18 +10,18 @@
     <sheet name="rebill" sheetId="1" r:id="rId1"/>
     <sheet name="rerate" sheetId="2" r:id="rId2"/>
     <sheet name="prerate" sheetId="3" r:id="rId3"/>
+    <sheet name="era_rerate" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">prerate!$A$1:$G$148</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rebill!$A$53:$G$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rebill!$A$53:$H$122</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
   <si>
     <t>TIN</t>
   </si>
@@ -89,12 +84,21 @@
   <si>
     <t>566166113544</t>
   </si>
+  <si>
+    <t>era_rerate_flg</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>era_rebill_flg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,32 +428,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,13 +471,16 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -488,18 +496,21 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="str">
-        <f t="shared" ref="F2:F52" si="0">CONCATENATE("insert into gtm_rev_tools.rebill_results (test_input_nbr,tin_count,trkngnbr,result,description) values ('",A2,"','",B2,"','",C2,"','",D2,"','",E2,"');")</f>
-        <v>insert into gtm_rev_tools.rebill_results (test_input_nbr,tin_count,trkngnbr,result,description) values ('125335','1','566166113544','fail','6015   :   A Technical Error has been encountered retrieving Freight, Surcharge, and tax tables');</v>
+      <c r="F2" t="s">
+        <v>18</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2" si="1">CONCATENATE("update gtm_rev_tools.rebill_results set result='",D2,"',description='",E2,"' where trkngnbr='",C2,"';")</f>
+        <f>CONCATENATE("insert into gtm_rev_tools.rebill_results (test_input_nbr,tin_count,trkngnbr,result,description,era_rerate) values ('",A2,"','",B2,"','",C2,"','",D2,"','",E2,"','",F2,"');")</f>
+        <v>insert into gtm_rev_tools.rebill_results (test_input_nbr,tin_count,trkngnbr,result,description,era_rerate) values ('125335','1','566166113544','fail','6015   :   A Technical Error has been encountered retrieving Freight, Surcharge, and tax tables','Y');</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2" si="0">CONCATENATE("update gtm_rev_tools.rebill_results set result='",D2,"',description='",E2,"' where trkngnbr='",C2,"';")</f>
         <v>update gtm_rev_tools.rebill_results set result='fail',description='6015   :   A Technical Error has been encountered retrieving Freight, Surcharge, and tax tables' where trkngnbr='566166113544';</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C36">
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -507,14 +518,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -524,7 +535,7 @@
     <col min="7" max="7" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -550,7 +561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>55555</v>
       </c>
@@ -580,7 +591,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -588,21 +599,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="68.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -625,7 +636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -642,11 +653,11 @@
         <v>8</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F65" si="0">CONCATENATE("insert into gtm_rev_tools.prerate_results (test_input_nbr,tin_count,trkngnbr,result,description) values ('",A2,"','",B2,"','",C2,"','",D2,"','",E2,"');")</f>
+        <f t="shared" ref="F2" si="0">CONCATENATE("insert into gtm_rev_tools.prerate_results (test_input_nbr,tin_count,trkngnbr,result,description) values ('",A2,"','",B2,"','",C2,"','",D2,"','",E2,"');")</f>
         <v>insert into gtm_rev_tools.prerate_results (test_input_nbr,tin_count,trkngnbr,result,description) values ('100929','1','458517422001','pass','pass');</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G6" si="1">CONCATENATE("update gtm_rev_tools.prerate_results set result='",D2,"',description='",E2,"' where trkngnbr='",C2,"';")</f>
+        <f t="shared" ref="G2" si="1">CONCATENATE("update gtm_rev_tools.prerate_results set result='",D2,"',description='",E2,"' where trkngnbr='",C2,"';")</f>
         <v>update gtm_rev_tools.prerate_results set result='pass',description='pass' where trkngnbr='458517422001';</v>
       </c>
     </row>
@@ -656,6 +667,76 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>123456789100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="str">
+        <f>CONCATENATE("insert into gtm_rev_tools.rebill_results (test_input_nbr,tin_count,trkngnbr,result,description,era_rerate) values ('",A2,"','",B2,"','",C2,"','",D2,"','",E2,"','",F2,"');")</f>
+        <v>insert into gtm_rev_tools.rebill_results (test_input_nbr,tin_count,trkngnbr,result,description,era_rerate) values ('125335','1','123456789100','fail','6015   :   A Technical Error has been encountered retrieving Freight, Surcharge, and tax tables','Y');</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2" si="0">CONCATENATE("update gtm_rev_tools.rebill_results set result='",D2,"',description='",E2,"' where trkngnbr='",C2,"';")</f>
+        <v>update gtm_rev_tools.rebill_results set result='fail',description='6015   :   A Technical Error has been encountered retrieving Freight, Surcharge, and tax tables' where trkngnbr='123456789100';</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -663,6 +744,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010065E849DD2F12A64694DA9517C857D77C" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5ed5ad1bc792d20614f0604e06161d22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="389abf0d-46d8-4547-8a67-e003d92e79b7" xmlns:ns3="6dded27b-9967-4792-a6f6-c293e6fe2cc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bb9238cf7a7807018ec99f6ee49fc66b" ns2:_="" ns3:_="">
     <xsd:import namespace="389abf0d-46d8-4547-8a67-e003d92e79b7"/>
@@ -867,15 +957,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C16D74C0-9815-4F4D-A40F-8078F7876792}">
   <ds:schemaRefs>
@@ -886,6 +967,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B4ECEBA-7AB5-41DB-B175-404ECA4D338E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED212E84-1F01-4066-826F-547110687C06}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -902,12 +991,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B4ECEBA-7AB5-41DB-B175-404ECA4D338E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/templates/master_upload.xlsx
+++ b/templates/master_upload.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11610" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="rebill" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,9 +438,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -510,7 +510,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C3:C36">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -591,7 +591,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:D5">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -603,7 +603,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -671,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="15"/>
@@ -723,12 +723,12 @@
         <v>18</v>
       </c>
       <c r="G2" t="str">
-        <f>CONCATENATE("insert into gtm_rev_tools.rebill_results (test_input_nbr,tin_count,trkngnbr,result,description,era_rerate) values ('",A2,"','",B2,"','",C2,"','",D2,"','",E2,"','",F2,"');")</f>
-        <v>insert into gtm_rev_tools.rebill_results (test_input_nbr,tin_count,trkngnbr,result,description,era_rerate) values ('125335','1','123456789100','fail','6015   :   A Technical Error has been encountered retrieving Freight, Surcharge, and tax tables','Y');</v>
+        <f>CONCATENATE("insert into gtm_rev_tools.era_results (test_input_nbr,tin_count,trkngnbr,result,description,era_rerate) values ('",A2,"','",B2,"','",C2,"','",D2,"','",E2,"','",F2,"');")</f>
+        <v>insert into gtm_rev_tools.era_results (test_input_nbr,tin_count,trkngnbr,result,description,era_rerate) values ('125335','1','123456789100','fail','6015   :   A Technical Error has been encountered retrieving Freight, Surcharge, and tax tables','Y');</v>
       </c>
       <c r="H2" t="str">
-        <f t="shared" ref="H2" si="0">CONCATENATE("update gtm_rev_tools.rebill_results set result='",D2,"',description='",E2,"' where trkngnbr='",C2,"';")</f>
-        <v>update gtm_rev_tools.rebill_results set result='fail',description='6015   :   A Technical Error has been encountered retrieving Freight, Surcharge, and tax tables' where trkngnbr='123456789100';</v>
+        <f>CONCATENATE("update gtm_rev_tools.era_results set result='",D2,"',description='",E2,"' where trkngnbr='",C2,"';")</f>
+        <v>update gtm_rev_tools.era_results set result='fail',description='6015   :   A Technical Error has been encountered retrieving Freight, Surcharge, and tax tables' where trkngnbr='123456789100';</v>
       </c>
     </row>
   </sheetData>
@@ -738,21 +738,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010065E849DD2F12A64694DA9517C857D77C" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5ed5ad1bc792d20614f0604e06161d22">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="389abf0d-46d8-4547-8a67-e003d92e79b7" xmlns:ns3="6dded27b-9967-4792-a6f6-c293e6fe2cc2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bb9238cf7a7807018ec99f6ee49fc66b" ns2:_="" ns3:_="">
     <xsd:import namespace="389abf0d-46d8-4547-8a67-e003d92e79b7"/>
@@ -957,24 +942,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C16D74C0-9815-4F4D-A40F-8078F7876792}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B4ECEBA-7AB5-41DB-B175-404ECA4D338E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED212E84-1F01-4066-826F-547110687C06}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -991,4 +974,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B4ECEBA-7AB5-41DB-B175-404ECA4D338E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C16D74C0-9815-4F4D-A40F-8078F7876792}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>